--- a/map.xlsx
+++ b/map.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,18 +416,18 @@
       <c r="A3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-A1
-—Alpha tirkizni</t>
+Alcatel
+—A3 10 LTE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>ALCATEL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALPHA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -670,7 +670,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 11 64GB Black </t>
+Apple
+—iPhone 11 256GB crni</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -685,7 +686,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>256GB</t>
         </is>
       </c>
     </row>
@@ -693,7 +694,8 @@
       <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 11 64GB Yellow </t>
+Apple
+—iPhone 11 64GB bijeli</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -717,7 +719,7 @@
         <is>
           <t xml:space="preserve">
 Apple
-—iPhone 11 Pro 64GB sivi</t>
+—iPhone 11 64GB crni</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -727,7 +729,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>IPHONE 11 PRO</t>
+          <t>IPHONE 11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -740,8 +742,7 @@
       <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Apple
-—iPhone 11 Pro 64GB srebrni</t>
+Mobitel Apple iPhone 11 64GB Yellow </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -751,7 +752,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IPHONE 11 PRO</t>
+          <t>IPHONE 11</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -765,7 +766,7 @@
         <is>
           <t xml:space="preserve">
 Apple
-—iPhone 11 Pro 64GB zlatni</t>
+—iPhone 11 Pro 64GB sivi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -788,7 +789,8 @@
       <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 11 Pro 64GB Midnight Green </t>
+Apple
+—iPhone 11 Pro 64GB zlatni</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -811,7 +813,7 @@
       <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 11 Pro 64GB Space Grey </t>
+Mobitel Apple iPhone 11 Pro 64GB Midnight Green </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -834,70 +836,70 @@
       <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel Apple iPhone 11 Pro 64GB Space Grey </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>IPHONE 11 PRO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Apple
 —iPhone 11 Pro Max 256GB sivi</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>APPLE</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>IPHONE 11 PRO MAX</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>256GB</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Apple
 —iPhone 11 Pro Max 64GB sivi</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>APPLE</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>IPHONE 11 PRO MAX</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>64GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone 7 32GB Black </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>APPLE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>IPHONE 7</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>32GB</t>
         </is>
       </c>
     </row>
@@ -905,7 +907,8 @@
       <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 7 32GB Rose Gold </t>
+Apple
+—iPhone 11 Pro Max 64GB srebrni</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -915,12 +918,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>IPHONE 7</t>
+          <t>IPHONE 11 PRO MAX</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32GB</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
@@ -928,7 +931,7 @@
       <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 7 32GB Silver </t>
+Mobitel Apple iPhone 11 Pro Max 64GB Space Grey </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -938,12 +941,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IPHONE 7</t>
+          <t>IPHONE 11 PRO MAX</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>32GB</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
@@ -951,7 +954,7 @@
       <c r="A26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 8 64GB Gold </t>
+Mobitel Apple iPhone 7 32GB Black </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -961,12 +964,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IPHONE 8</t>
+          <t>IPHONE 7</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>32GB</t>
         </is>
       </c>
     </row>
@@ -974,7 +977,7 @@
       <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 8 64GB Silver </t>
+Mobitel Apple iPhone 7 32GB Gold </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -984,12 +987,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IPHONE 8</t>
+          <t>IPHONE 7</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>32GB</t>
         </is>
       </c>
     </row>
@@ -997,7 +1000,7 @@
       <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 8 64GB Space Grey </t>
+Mobitel Apple iPhone 7 32GB Rose Gold </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1007,12 +1010,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IPHONE 8</t>
+          <t>IPHONE 7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>32GB</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1023,7 @@
       <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 8 Plus 64GB Silver </t>
+Mobitel Apple iPhone 7 32GB Silver </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1030,12 +1033,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IPHONE 8 PLUS</t>
+          <t>IPHONE 7</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>32GB</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1046,7 @@
       <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone 8 Plus 64GB Space Grey </t>
+Mobitel Apple iPhone 8 64GB Gold </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1053,7 +1056,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IPHONE 8 PLUS</t>
+          <t>IPHONE 8</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1066,7 +1069,7 @@
       <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Apple iPhone XR 64GB - Black </t>
+Mobitel Apple iPhone 8 64GB Silver </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1076,7 +1079,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IPHONE XR</t>
+          <t>IPHONE 8</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1089,152 +1092,156 @@
       <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel Apple iPhone 8 64GB Space Grey </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>IPHONE 8</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 8 Plus 64GB Silver </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>IPHONE 8 PLUS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 8 Plus 64GB Space Grey </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>IPHONE 8 PLUS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone XR 64GB - Black </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>IPHONE XR</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Apple
 —iPhone XS 64GB zlatni</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>APPLE</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>IPHONE XS</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>64GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone XS Max 64GB Silver </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>APPLE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>IPHONE XS</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>64GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone XS Max 64GB Space Grey </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>APPLE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>IPHONE XS</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>64GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>iPhone 11 64GB White</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Apple</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>IPHONE 11</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>64GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>iPhone 11 Pro 64G Gold</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Apple</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>IPHONE 11 PRO</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>iPhone 7 32GB Black</t>
+          <t xml:space="preserve">
+Mobitel Apple iPhone XS 64GB Gold </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>APPLE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IPHONE 7</t>
+          <t>IPHONE XS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>32GB</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>iPhone 8 64GB Gold</t>
+          <t xml:space="preserve">
+Mobitel Apple iPhone XS 64GB Space Grey </t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>APPLE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IPHONE 8</t>
+          <t>IPHONE XS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1246,17 +1253,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>iPhone XR 64 GB Product Red</t>
+          <t xml:space="preserve">
+Mobitel Apple iPhone XS Max 64GB Space Grey </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>APPLE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IPHONE XR</t>
+          <t>IPHONE XS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1268,7 +1276,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>iPhone XS 64 GB Gold</t>
+          <t>iPhone 11 64GB White</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1278,7 +1286,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IPHONE XS</t>
+          <t>IPHONE 11</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1290,7 +1298,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>iPhone XS Max 64 GB Space Gray</t>
+          <t>iPhone 11 Pro 64G Gold</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1300,505 +1308,501 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>IPHONE XS MAX</t>
+          <t>IPHONE 11 PRO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>iPhone 7 32GB Black</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>IPHONE 7</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>iPhone 8 64GB Gold</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>IPHONE 8</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>iPhone XR 64 GB Product Red</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>IPHONE XR</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>iPhone XS 64 GB Gold</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>IPHONE XS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>iPhone XS Max 64 GB Space Gray</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>IPHONE XS MAX</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Alcatel
 —1 2019 DS crni</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alcatel
 —1S crni</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>1S</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alcatel
 —20.03 crni</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>20.03</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alcatel
 —20.19 sivi</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>20.19</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mobitel CAT S31 </t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>S31</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mobitel CAT S41 </t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>S41</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mobitel CAT S61 </t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>S61</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alcatel
 —U5 Premium crni</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>U5 PREMIUM</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Crosscall
+—Shark-X3 DS crni</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CROSSCALL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Shark S3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Crosscall
 —Trekker M1 core DS crni</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>CROSSCALL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>TREKKER M1</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Crosscall
 —Trekker X4 + X-Chest pojas</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>CROSSCALL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>TREKKER X4</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Crosscall
 —Trekker X4 + X-Wave zvučnik</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>CROSSCALL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>TREKKER X4</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Doro
 —2404</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>DORO</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>2404</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Doro
 —530X crni</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>DORO</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>530X</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Doro 632 Single SIM Midnight Blue</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>DORO</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>632</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t xml:space="preserve">
 GoPro
 —HERO8 Black Bundle 2019</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>GOPRO</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>HERO 8</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Honor 20 lite 4/128 black </t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>HONOR</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>20 LITE</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Honor 20 lite 4/128 blue </t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>HONOR</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>20 LITE</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Honor 20 lite 4/128 red </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>HONOR</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>20 LITE</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Honor 20 DS_128GB_Midnight Black </t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>HONOR</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>20DS</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Honor 8S DS 32GB BLACK </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>HONOR</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>8S</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>32GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Honor 8S DS 32GB BLUE </t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>HONOR</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>8S</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>32GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1810,7 @@
       <c r="A63" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Honor 8S DS 32GB GOLD </t>
+Mobitel Honor 20 DS_128GB_Midnight Black  </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1816,12 +1820,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8S</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>32GB</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1833,7 @@
       <c r="A64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Honor 9X 128GB BLUE </t>
+Mobitel Honor 20 lite 4/128 black </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1839,7 +1843,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>9X</t>
+          <t>20 LITE</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1852,7 +1856,7 @@
       <c r="A65" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Honor 9X_128GB BLACK </t>
+Mobitel Honor 20 lite 4/128 blue </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1862,7 +1866,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9X</t>
+          <t>20 LITE</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1875,426 +1879,424 @@
       <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel Honor 20 lite 4/128 red </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>20 LITE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Honor 8S DS 32GB BLACK </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>8S</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Honor 8S DS 32GB BLUE </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>8S</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Honor 8S DS 32GB GOLD </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>8S</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Honor 9X 128GB BLUE </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9X</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Honor 9X_128GB BLACK </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>9X</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Honor
 —9x DS crni</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>HONOR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>9X</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huawei
 —NOVA 5T 128GB crni</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>NOVA 5T</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>128GB</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Huawei
-—NOVA 5T 128GB ljubičasti</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>NOVA 5T</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huawei
 —P Smart 2019 DS crni</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>P SMART 2019</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Huawei P Smart Z Dual SIM Blue</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>P SMART Z</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huawei
-—P Smart 2019 DS ljubicasti</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
+—P Smart Pro DS bijeli</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>P SMART 2019</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Huawei P Smart Pro Dual SIM Black</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>P Smart Pro</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Huawei P Smart Pro Dual SIM Breathing Crystal</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>P SMART PRO</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Huawei P Smart Z Dual SIM Blue</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>P SMART Z</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>P Smart Pro</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huawei
 —P30 DS white + Watch GT zeleni</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>P30</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huawei
 —P30 bijeli</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>P30</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Huawei P30 Dual SIM Black</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>P30</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huawei
 —P30 Lite DS crni+Mini BT zvučnik</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>P30 LITE</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Huawei
-—P30 Lite DS plavi+Mini BT zvučnik</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Huawei P30 Lite Dual SIM Blue</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>P30 LITE</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Huawei
-—P30 Lite plavi</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>P30 LITE</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Huawei P30 Lite Dual SIM Blue</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>P30 LITE</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Huawei
 —P30 PRO 128GB crni</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>HUAWEI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>P30 PRO</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Huawei
-—P30 PRO 128GB plavi</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>P30 PRO</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Huawei P30 Pro Dual SIM Black</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>P30 PRO</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Huawei Y6 2019 Dual SIM Black</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>HUAWEI</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Y6</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Huawei Y7 2019 Dual SIM Black</t>
+          <t>Huawei P30 Pro Dual SIM Black</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2304,7 +2306,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Y7</t>
+          <t>P30 PRO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2316,259 +2318,259 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>Huawei Y6 2019 Dual SIM Black</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Y6</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Huawei Y7 2019 Dual SIM Black</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Lenovo
 —Moto Z Crni</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>LENOVO</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>MOTO Z</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t xml:space="preserve">
 LG
 —G8X Dual Screen crni</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>LG</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>8X</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t xml:space="preserve">
 LG
 —Q60 DS</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>LG</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Q60</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t xml:space="preserve">
 MobiWire
 —FP1 3G crni</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>MOBIWIRE</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>FP1</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Motorola
 —Moto E4 plus DS</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>Motorola</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Moto E4 PLUS</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+MyKi
+—Watch touch crveni</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Myki</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Watch touch</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Myki
+—Watch touch plavi</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Myki</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Watch touch</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mobitel NOA N3 5.5" silver </t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>NOA</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>N3</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nokia
 —3310 New plavi</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>NOKIA</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel OnePlus 7T 8/128GB Plavi </t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ONEPLUS</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>7T</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Panasonic KX-TU150 </t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>PANASONIC</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>KX-TU150</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel REALME 5 4GB/128 GB PLAVI </t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>REALME</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>REALME 5</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel REALME 5 PRO 8GB/128 GB PLAVI </t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>REALME</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>REALME 5</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2578,7 @@
       <c r="A96" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel REALME X2 8GB/128 GB PLAVI </t>
+Mobitel REALME 5 4GB/128 GB PLAVI </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2586,7 +2588,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>REALME X2</t>
+          <t>REALME 5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2599,7 +2601,7 @@
       <c r="A97" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel REALME X2 PRO 12GB/256 GB PLAVI </t>
+Mobitel REALME 5 PRO 8GB/128 GB PLAVI </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2609,12 +2611,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>REALME X2</t>
+          <t>REALME 5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -2622,62 +2624,64 @@
       <c r="A98" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel REALME X2 8GB/128 GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>REALME X2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME X2 PRO 12GB/256 GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>REALME X2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Samsung
 —Galaxy A51 DS crni</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy A51 Dual SIM Black</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy S20 Dual SIM Cloud Pink</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2689,7 +2693,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S20 Ultra 5G Dual SIM Cosmic Black</t>
+          <t>Samsung Galaxy A51 Dual SIM Black</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2699,7 +2703,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2711,7 +2715,9 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S20+ Dual SIM Cosmic Black</t>
+          <t xml:space="preserve">
+Samsung
+—Galaxy J3 2017 crni</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2733,8 +2739,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A30s bijeli 64GB dual SIM SM-A307F </t>
+          <t>Samsung Galaxy S20 Dual SIM Cloud Pink</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2744,20 +2749,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GALAXY A 30S</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A30s crni 64GB dual SIM SM-A307F </t>
+          <t>Samsung Galaxy S20 Ultra 5G Dual SIM Cosmic Black</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2767,20 +2771,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GALAXY A 30S</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A30s zeleni 64GB dual SIM SM-A307F </t>
+          <t>Samsung Galaxy S20+ Dual SIM Cosmic Black</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2790,12 +2793,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GALAXY A 30S</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2806,7 @@
       <c r="A106" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A10 crni dual SIM SM-A105F </t>
+Mobitel Samsung Galaxy A30s bijeli 64GB dual SIM SM-A307F </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2813,12 +2816,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GALAXY A10</t>
+          <t>GALAXY A 30S</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2829,7 @@
       <c r="A107" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A10 plavi dual SIM SM-A105F </t>
+Mobitel Samsung Galaxy A30s crni 64GB dual SIM SM-A307F </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2836,19 +2839,20 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GALAXY A10</t>
+          <t>GALAXY A 30S</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A10 Dual SIM Black</t>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A30s zeleni 64GB dual SIM SM-A307F </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2858,12 +2862,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GALAXY A10</t>
+          <t>GALAXY A 30S</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2875,7 @@
       <c r="A109" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A20e bijeli dual SIM SM-A202F </t>
+Mobitel Samsung Galaxy A10 crni dual SIM SM-A105F </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2881,7 +2885,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GALAXY A20E</t>
+          <t>GALAXY A10</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2894,7 +2898,7 @@
       <c r="A110" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A20e crni dual SIM SM-A202F </t>
+Mobitel Samsung Galaxy A10 plavi dual SIM SM-A105F </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2904,7 +2908,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GALAXY A20E</t>
+          <t>GALAXY A10</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2916,8 +2920,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A20e narančasti dual SIM SM-A202F </t>
+          <t>Samsung Galaxy A10 Dual SIM Black</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2927,7 +2930,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>GALAXY A20E</t>
+          <t>GALAXY A10</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2940,7 +2943,7 @@
       <c r="A112" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A20e plavi dual SIM SM-A202F </t>
+Mobitel Samsung Galaxy A20e bijeli dual SIM SM-A202F </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2963,110 +2966,111 @@
       <c r="A113" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel Samsung Galaxy A20e crni dual SIM SM-A202F </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>GALAXY A20E</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A20e narančasti dual SIM SM-A202F  </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>GALAXY A20E</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A20e plavi dual SIM SM-A202F </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>GALAXY A20E</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Samsung
 —Galaxy A20e DS crni</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>GALAXY A20E</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Samsung
 —Galaxy A30s DS crni</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>GALAXY A30S</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy A30s Dual SIM White</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>GALAXY A30S</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A40 bijeli dual SIM SM-A405F </t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>GALAXY A40</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A40 crni dual SIM SM-A405F </t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>GALAXY A40</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3078,8 +3082,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A40 narančasti dual SIM SM-A405F </t>
+          <t>Samsung Galaxy A30s Dual SIM White</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3089,7 +3092,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GALAXY A40</t>
+          <t>GALAXY A30S</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3102,7 +3105,7 @@
       <c r="A119" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A40 plavi dual SIM SM-A405F </t>
+Mobitel Samsung Galaxy A40 bijeli dual SIM SM-A405F </t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3125,7 +3128,7 @@
       <c r="A120" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A50 bijeli 128GB dual SIM SM-A505F </t>
+Mobitel Samsung Galaxy A40 narančasti dual SIM SM-A405F </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3135,12 +3138,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>GALAXY A50</t>
+          <t>GALAXY A40</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3151,7 @@
       <c r="A121" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A50 narančasti 128GB dual SIM SM-A505F </t>
+Mobitel Samsung Galaxy A40 plavi dual SIM SM-A405F </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3158,12 +3161,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GALAXY A50</t>
+          <t>GALAXY A40</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3174,7 @@
       <c r="A122" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A50 plavi 128GB dual SIM SM-A505F </t>
+Mobitel Samsung Galaxy A50 narančasti 128GB dual SIM SM-A505F </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3353,8 +3356,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A70 plavi 128GB dual SIM SM-A705F </t>
+          <t>Samsung Galaxy A70 Dual SIM Black</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3376,7 +3378,8 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Samsung Galaxy A70 Dual SIM Black</t>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A71 bijeli dual SIM SM-A715F </t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3386,12 +3389,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GALAXY A70</t>
+          <t>GALAXY A71</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3402,7 @@
       <c r="A132" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A71 bijeli dual SIM SM-A715F </t>
+Mobitel Samsung Galaxy A71 crni dual SIM SM-A715F </t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3422,7 +3425,7 @@
       <c r="A133" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy A71 crni dual SIM SM-A715F </t>
+Mobitel Samsung Galaxy A71 plavi dual SIM SM-A715F </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3444,8 +3447,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy A71 plavi dual SIM SM-A715F </t>
+          <t>Samsung Galaxy Fold Black</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3455,7 +3457,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GALAXY A71</t>
+          <t>GALAXY FOLD</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3467,7 +3469,8 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Fold Black</t>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy Note10 8GB/256GB Aura Crna SM-N970F </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3477,12 +3480,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GALAXY FOLD</t>
+          <t>GALAXY NOTE 10</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>256GB</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3493,7 @@
       <c r="A136" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10 8GB/256GB Aura Crna SM-N970F </t>
+Mobitel Samsung Galaxy Note10 8GB/256GB Aura Roza SM-N970F </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3513,7 +3516,7 @@
       <c r="A137" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10 8GB/256GB Aura Roza SM-N970F </t>
+Mobitel Samsung Galaxy Note10 8GB/256GB Aura Sjajna SM-N970F </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3536,7 +3539,8 @@
       <c r="A138" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10 8GB/256GB Aura Sjajna SM-N970F </t>
+Samsung
+—Galaxy Note10 lite DS crni</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3551,16 +3555,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Samsung
-—Galaxy Note10 lite DS crni</t>
+          <t>Samsung Galaxy Note 10 Lite Dual SIM Black</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3582,7 +3584,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Note 10 Lite Dual SIM Black</t>
+          <t>Samsung Galaxy Note10 Dual SIM Aura Black</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3604,7 +3606,8 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Note10 Dual SIM Aura Black</t>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy Note10 lite crni dual SIM SM-N770F </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3614,7 +3617,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GALAXY NOTE 10</t>
+          <t>GALAXY NOTE 10 LITE</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3627,7 +3630,7 @@
       <c r="A142" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10 lite crni dual SIM SM-N770F </t>
+Mobitel Samsung Galaxy Note10 lite crveni dual SIM SM-N770F </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3650,7 +3653,7 @@
       <c r="A143" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10 lite crveni dual SIM SM-N770F </t>
+Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Bijela SM-N975F </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3660,12 +3663,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GALAXY NOTE 10 LITE</t>
+          <t>GALAXY NOTE 10+</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>256GB</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3676,7 @@
       <c r="A144" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Bijela SM-N975F </t>
+Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Crna SM-N975F </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3696,7 +3699,7 @@
       <c r="A145" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Crna SM-N975F </t>
+Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Sjajna SM-N975F </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3719,7 +3722,7 @@
       <c r="A146" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Sjajna SM-N975F </t>
+Mobitel Samsung Galaxy Note10+ 12GB/512GB Aura Crna SM-N975F </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3734,7 +3737,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>512GB</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3745,8 @@
       <c r="A147" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy Note10+ 12GB/512GB Aura Crna SM-N975F </t>
+Samsung
+—Galaxy Note10+ DS crni</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3757,16 +3761,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>512GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Samsung
-—Galaxy Note10+ DS crni</t>
+          <t>Samsung Galaxy Note10+ Dual SIM Aura Black</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3788,7 +3790,8 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Note10+ Dual SIM Aura Black</t>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy S10 biserno bijeli 128GB dual SIM SM-G973F </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3798,12 +3801,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>GALAXY NOTE 10+</t>
+          <t>GALAXY S10</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3814,7 @@
       <c r="A150" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10 biserno bijeli 128GB dual SIM SM-G973F </t>
+Mobitel Samsung Galaxy S10 dijamantno crni 128GB dual SIM SM-G973F </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3834,7 +3837,7 @@
       <c r="A151" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10 dijamantno crni 128GB dual SIM SM-G973F </t>
+Mobitel Samsung Galaxy S10 dijamantno zeleni 128GB dual SIM SM-G973F </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3857,7 +3860,7 @@
       <c r="A152" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10 dijamantno zeleni 128GB dual SIM SM-G973F </t>
+Mobitel Samsung Galaxy S10 kraljevsko crveni 128GB dual SIM SM-G973F </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3994,7 +3997,9 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S10 Lite Dual SIM Black</t>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S10 lite DS bijeli</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4017,7 +4022,8 @@
       <c r="A159" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10+ dijamantno plavi 128GB dual SIM SM-G975F </t>
+Samsung
+—Galaxy S10 lite DS crni</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4027,20 +4033,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GALAXY S10+</t>
+          <t>GALAXY S10</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy S10+ dijamantno zeleni 128GB dual SIM SM-G975F </t>
+          <t>Samsung Galaxy S10 Lite Dual SIM Black</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4050,12 +4055,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>GALAXY S10+</t>
+          <t>GALAXY S10</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -4063,115 +4068,115 @@
       <c r="A161" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel Samsung Galaxy S10+ dijamantno plavi 128GB dual SIM SM-G975F </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>GALAXY S10+</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy S10+ dijamantno zeleni 128GB dual SIM SM-G975F </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>GALAXY S10+</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Samsung
 —Galaxy S10+ 128GB DS crni</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>GALAXY S10+</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>128GB</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Samsung Galaxy S10+ Dual SIM 128GB Prism White</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>GALAXY S10+</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>128GB</t>
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Samsung
 —Galaxy S10+ 1TB DS crni</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>GALAXY S10+</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>1TB</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy S10e biserno bijeli 128GB dual SIM SM-G970F </t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>GALAXY S10E</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>128GB</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy S10e dijamantno crni 128GB dual SIM SM-G970F </t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>GALAXY S10E</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4184,7 @@
       <c r="A166" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10e dijamantno plavi 128GB dual SIM SM-G970F </t>
+Mobitel Samsung Galaxy S10e biserno bijeli 128GB dual SIM SM-G970F </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4202,7 +4207,7 @@
       <c r="A167" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10e dijamantno zeleni 128GB dual SIM SM-G970F </t>
+Mobitel Samsung Galaxy S10e dijamantno crni 128GB dual SIM SM-G970F </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4225,7 +4230,7 @@
       <c r="A168" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10e intenzivno žuti 128GB dual SIM SM-G970F </t>
+Mobitel Samsung Galaxy S10e dijamantno plavi 128GB dual SIM SM-G970F </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4248,7 +4253,7 @@
       <c r="A169" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S10e kraljevsko crveni 128GB dual SIM SM-G970F </t>
+Mobitel Samsung Galaxy S10e dijamantno zeleni 128GB dual SIM SM-G970F </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4270,7 +4275,8 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S10e Dual SIM 128GB Prism Green</t>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy S10e intenzivno žuti 128GB dual SIM SM-G970F </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4293,7 +4299,7 @@
       <c r="A171" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S20 128GB nebesko rozi SM-G980FZIDEUG </t>
+Mobitel Samsung Galaxy S10e kraljevsko crveni 128GB dual SIM SM-G970F </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4303,7 +4309,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>GALAXY S20</t>
+          <t>GALAXY S10E</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4316,7 +4322,7 @@
       <c r="A172" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S20 128GB svemirsko plavi SM-G980FLBDEUG </t>
+ Mobitel Samsung Galaxy S20 128GB svemirsko plavi SM-G980FLBDEUG </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4339,7 +4345,7 @@
       <c r="A173" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S20 Ultra 5G 128GB svemirsko crni SM-G988BZKDEUG </t>
+Mobitel Samsung Galaxy S20 128GB nebesko rozi SM-G980FZIDEUG </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4362,7 +4368,7 @@
       <c r="A174" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S20 Ultra 5G 128GB svemirsko sivi SM-G988BZADEUG </t>
+Mobitel Samsung Galaxy S20 128GB svemirsko sivi SM-G980FZADEUG </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4385,7 +4391,7 @@
       <c r="A175" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S20 Ultra 5G 512GB svemirsko sivi SM-G988BZAGEUG </t>
+Mobitel Samsung Galaxy S20 Ultra 5G 128GB svemirsko crni SM-G988BZKDEUG </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4408,7 +4414,7 @@
       <c r="A176" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S20+ 128GB svemirsko crni SM-G985FZKDEUG </t>
+Mobitel Samsung Galaxy S20 Ultra 5G 128GB svemirsko sivi SM-G988BZADEUG </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4418,7 +4424,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GALAXY S20+</t>
+          <t>GALAXY S20</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4431,7 +4437,7 @@
       <c r="A177" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Samsung Galaxy S20+ 128GB svemirsko sivi SM-G985FZADEUG </t>
+Mobitel Samsung Galaxy S20 Ultra 5G 512GB svemirsko sivi SM-G988BZAGEUG </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4441,7 +4447,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>GALAXY S20+</t>
+          <t>GALAXY S20</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4454,87 +4460,87 @@
       <c r="A178" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel Samsung Galaxy S20+ 128GB nebesko plavi SM-G985FLBDEUG </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>GALAXY S20+</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy S20+ 128GB svemirsko crni SM-G985FZKDEUG </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>GALAXY S20+</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy S20+ 128GB svemirsko sivi SM-G985FZADEUG </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>GALAXY S20+</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Samsung
 —Galaxy Tab A 10.1 2019 crni</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
         <is>
           <t>GALAXY TAB A10</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung SM-G398F Galaxy Xcover 4s crni </t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>GALAXY XCOVER</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy Xcover Pro crni dual SIM SM-G715F </t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>SAMSUNG</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>GALAXY XCOVER PRO</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Sony Xperia 1 black </t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SONY</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>XPERIA 1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4547,17 +4553,17 @@
       <c r="A182" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Sony Xperia L3 Dual SIM srebrni </t>
+Mobitel Samsung SM-G398F Galaxy Xcover 4s crni </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>XPERIA L3</t>
+          <t>GALAXY XCOVER</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4570,17 +4576,17 @@
       <c r="A183" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Sony Xperia XZ3 crni </t>
+Mobitel Samsung Galaxy Xcover Pro crni dual SIM SM-G715F </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SONY</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>XPERIA XZ3</t>
+          <t>GALAXY XCOVER PRO</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4593,45 +4599,45 @@
       <c r="A184" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel VIVAX SMART Fly 5 Deep Black </t>
+Samsung
+—Galaxy Z Flip DS crni</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>VIVAX</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SMART FLY 5</t>
+          <t>GALAXY Z FLIP</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>256GB</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Mobitel VIVAX SMART Fly 5 Pearl Gray </t>
+          <t>Samsung Galaxy Z Flip Purple Mirror</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>VIVAX</t>
+          <t>SAMSUNG</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SMART FLY 5</t>
+          <t>GALAXY Z FLIP</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>256GB</t>
         </is>
       </c>
     </row>
@@ -4639,17 +4645,17 @@
       <c r="A186" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel VIVAX SMART Fly5 Lite Polar Blue </t>
+Mobitel Sony Xperia 1 black </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>VIVAX</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SMART FLY 5 LITE</t>
+          <t>XPERIA 1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4662,17 +4668,17 @@
       <c r="A187" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel VIVAX SMART Point X502 gold </t>
+Mobitel Sony Xperia L3 Dual SIM srebrni </t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>VIVAX</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SMART POINT X502</t>
+          <t>XPERIA L3</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4685,17 +4691,17 @@
       <c r="A188" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel VIVAX SMART PRO 3 black </t>
+Mobitel Sony Xperia XZ3 crni </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>VIVAX</t>
+          <t>SONY</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SMART PRO 3</t>
+          <t>XPERIA XZ3</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4708,7 +4714,7 @@
       <c r="A189" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel VIVAX SMART PRO 3 orange </t>
+Mobitel VIVAX SMART Fly 5 Deep Black  </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4718,7 +4724,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SMART PRO 3</t>
+          <t>SMART FLY 5</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4731,22 +4737,22 @@
       <c r="A190" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Xiaomi MI 9 Lite 6GB/64GB Dual-SIM Bijela </t>
+Mobitel VIVAX SMART Fly 5 Pearl Gray </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>VIVAX</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MI 9 LITE</t>
+          <t>SMART FLY 5</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -4754,22 +4760,22 @@
       <c r="A191" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel XIAOMI MI 9T 6/128GB: CRNI </t>
+Mobitel VIVAX SMART Fly5 Lite Deep Black </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>VIVAX</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MI 9T</t>
+          <t>SMART FLY 5 LITE</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -4777,22 +4783,22 @@
       <c r="A192" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel XIAOMI MI 9T 6/128GB: CRVENI </t>
+Mobitel VIVAX SMART Fly5 Lite Polar Blue </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>VIVAX</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MI 9T</t>
+          <t>SMART FLY 5 LITE</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>128GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -4800,22 +4806,22 @@
       <c r="A193" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel XIAOMI MI 9T 6/64GB: CRNI </t>
+Mobitel VIVAX SMART PRO 3 black </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>VIVAX</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MI 9T</t>
+          <t>SMART PRO 3</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -4823,22 +4829,22 @@
       <c r="A194" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel XIAOMI MI 9T 6/64GB: CRVENI </t>
+Mobitel VIVAX SMART PRO 3 orange </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>XIAOMI</t>
+          <t>VIVAX</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MI 9T</t>
+          <t>SMART PRO 3</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>INFONA</t>
         </is>
       </c>
     </row>
@@ -4846,7 +4852,8 @@
       <c r="A195" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel XIAOMI MI 9T 6/64GB: PLAVI </t>
+Xiaomi
+—Note 8 Pro 128GB sivi</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4856,12 +4863,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MI 9T</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4876,7 @@
       <c r="A196" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel XIAOMI MI 9T PRO 6/64GB: CRNA </t>
+Mobitel Xiaomi MI 9 Lite 6GB/64GB Dual-SIM Bijela </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4879,7 +4886,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MI 9T</t>
+          <t>MI 9 LITE</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4892,7 +4899,7 @@
       <c r="A197" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel XIAOMI MI 9T PRO 6/64GB: CRVENA </t>
+Mobitel XIAOMI MI 9T 6/128GB: CRNI </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4907,7 +4914,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>64GB</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -4915,8 +4922,7 @@
       <c r="A198" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Xiaomi
-—Mi 9T DS crni</t>
+Mobitel XIAOMI MI 9T 6/128GB: CRVENI </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4931,7 +4937,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4945,7 @@
       <c r="A199" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Xiaomi MI A3 4GB/128GB Bijela </t>
+Mobitel XIAOMI MI 9T 6/128GB: PLAVI </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4949,7 +4955,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>MI A3</t>
+          <t>MI 9T</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4961,7 +4967,8 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Note 10 Dual SIM Midnight Black</t>
+          <t xml:space="preserve">
+Mobitel XIAOMI MI 9T 6/64GB: CRNI </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4971,12 +4978,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>MI NOTE 10</t>
+          <t>MI 9T</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4991,7 @@
       <c r="A201" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Xiaomi Mi Note 10 PRO 8GB/256GB bijela </t>
+Mobitel XIAOMI MI 9T 6/64GB: CRVENI </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4994,12 +5001,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>MI NOTE 10 PRO</t>
+          <t>MI 9T</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
@@ -5007,7 +5014,7 @@
       <c r="A202" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Mobitel Xiaomi Mi Note 10 PRO 8GB/256GB zelena </t>
+Mobitel XIAOMI MI 9T 6/64GB: PLAVI </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5017,12 +5024,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MI NOTE 10 PRO</t>
+          <t>MI 9T</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>256GB</t>
+          <t>64GB</t>
         </is>
       </c>
     </row>
@@ -5030,474 +5037,598 @@
       <c r="A203" t="inlineStr">
         <is>
           <t xml:space="preserve">
+Mobitel XIAOMI MI 9T PRO 6/64GB: CRNA </t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>MI 9T</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel XIAOMI MI 9T PRO 6/64GB: CRVENA </t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>MI 9T</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel XIAOMI MI 9T PRO 6/64GB: PLAVA </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>MI 9T</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi MI A3 4GB/64GB Bijela </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>MI A3</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 6GB/128GB Crna </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 6GB/128GB Zelena </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi
+—Mi Note 10 128GB sivi</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Xiaomi Mi Note 10 Dual SIM Midnight Black</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 PRO 8GB/256GB bijela </t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>MI NOTE 10 PRO</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 PRO 8GB/256GB zelena </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>MI NOTE 10 PRO</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi 8 4GB/64GB Crna </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>REDMI 8</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Xiaomi
 —Redmi 8 crni</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>XIAOMI</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>REDMI 8</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mobitel Xiaomi Redmi 8A DS 2/32GB: crna </t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>XIAOMI</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>REDMI 8A</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>32GB</t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mobitel Xiaomi Redmi 8A DS 2/32GB: crvena </t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>XIAOMI</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>REDMI 8A</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>32GB</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mobitel Xiaomi Redmi 8A DS 2/32GB: plava </t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>XIAOMI</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>REDMI 8A</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>32GB</t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/128GB Dual-SIM Plava </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/128GB Dual-SIM Siva </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/64GB Dual-SIM Siva </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>Xiaomi Redmi Note 8 Pro Dual SIM Forest Green</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>XIAOMI</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>REDMI NOTE 8 PRO</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi Note 8T 4GB/128GB Plavi </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8T</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi Note 8T 4GB/128GB Siva </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8T</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi Note 8T 4GB/64GB Plava </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8T</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi Note 8T 4GB/64GB Siva </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8T</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Xiaomi Redmi Note 8T Dual SIM Blue</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>XIAOMI</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>REDMI NOTE 8T</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>Xiaomi Redmi 7A Dual SIM Blue</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>XIAOMI</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Redmi 7A</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ZTE
 —Blade A5 2019</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>ZTE</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>BLADE A520</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-ZTE
-—Blade A520 DS srebrni</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>ZTE</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>BLADE A520</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>INFONA</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- Mobitel Samsung Galaxy S20+ 128GB nebesko plavi SM-G985FLBDEUG </t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
- Mobitel XIAOMI MI 9T PRO 6/64GB: PLAVA </t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Alcatel
-—A3 10 LTE</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone 11 64GB Green </t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone 11 64GB Red </t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone 7 32GB Gold </t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone XS 64GB Gold </t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Apple iPhone XS 64GB Space Grey </t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy S10 kraljevsko crveni 128GB dual SIM SM-G973F  </t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Samsung Galaxy S20 128GB svemirsko sivi SM-G980FZADEUG </t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel VIVAX SMART Fly5 Lite Deep Black </t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel XIAOMI MI 9T 6/128GB: PLAVI </t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi MI A3 4GB/64GB Bijela </t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Mi Note 10 6GB/128GB Crna  </t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Mi Note 10 6GB/128GB Zelena </t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Mi Note 10 6GB/128GB bijela </t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Redmi 8 4GB/64GB Crna </t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Redmi Note 8T 4GB/128GB Plavi </t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Redmi Note 8T 4GB/128GB Siva </t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Redmi Note 8T 4GB/64GB Plava  </t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Mobitel Xiaomi Redmi Note 8T 4GB/64GB Siva </t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Samsung
-—Galaxy Z Flip DS crni</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Samsung
-—Galaxy Z Flip DS ljubičasti</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Samsung Galaxy Z Flip Purple Mirror</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/map.xlsx
+++ b/map.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5791,6 +5791,1173 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy S20 Ultra Dual SIM Cosmic Black</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>GALAXY S20 ULTRA</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+iPhone 11 64GB  
+</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Iphone 11 Pro 64GB
+</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>IPHONE 11 PRO</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+iPhone 7 32 GB
+</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>IPHONE 7</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+iPhone 8 64 GB
+</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>IPHONE 8</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+iPhone XR 64 GB
+</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>IPHONE XR</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+iPhone XS 64 GB 
+</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>IPHONE XS</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+iPhone XS Max 64 GB 
+</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>IPHONE XS MAX</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+CAT S52 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+CAT S61 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>S61</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Doro 632 Single SIM
+</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>DORO</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei P Smart Pro Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>P SMART PRO</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei  P Smart Z Dual SIM 
+</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>P SMART Z</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei P30 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>P30</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei P30 Lite Dual SIM 
+</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>P30 LITE</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei P30 Pro Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>P30 PRO</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei Y6 2019 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Y6</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei Y7 2019 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Y7</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A10 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>GALAXY A10</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A30s Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>GALAXY A30S</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A50 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>GALAXY A50</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A51 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>GALAXY A51</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A70 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>GALAXY A70</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A71
+</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>GALAXY A71</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy Fold
+</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>GALAXY FOLD</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy Note10 Dual SIM 
+</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>GALAXY NOTE 10</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy Note 10 Lite Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>GALAXY NOTE 10 LITE</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy Note10+ Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>GALAXY NOTE 10+</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy S10 Dual SIM 128GB
+</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>GALAXY S10</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy S10 Lite Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>GALAXY S10 LITE</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy S10+ Dual SIM 128 GB
+</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>GALAXY S10+</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy S20
+</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>GALAXY S20</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy S20 Ultra 5G
+</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>GALAXY S20 ULTRA</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy S20+
+</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>GALAXY S20+</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy Z Flip
+</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>GALAXY Z FLIP</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Mi Note 10 Dual SIM 
+</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Redmi 7A Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>REDMI 7A</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Redmi Note 8 Pro Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Redmi Note 8T Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8T</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 11 128GB White </t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 11 64GB White </t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 8 Plus 64GB Space Grey </t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>IPHONE 8 PLUS</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A70 narančasti 128GB dual SIM SM-A705F </t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>GALAXY A70</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy S10 kraljevsko crveni 128GB dual SIM SM-G973F </t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>GALAXY S10</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S20 DS sivi</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>GALAXY S20</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S20 Ultra DS sivi</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>GALAXY S20 ULTRA</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S20+ DS crni</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>GALAXY S20+</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel XIAOMI MI 9T 6/64GB: CRNI </t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>MI 9T</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 6GB/128GB Zelena  </t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/map.xlsx
+++ b/map.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>A20E</t>
+          <t>GALAXY A20E</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>A30S</t>
+          <t>GALAXY A30S</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>A51</t>
+          <t>GALAXY A51</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>A71</t>
+          <t>GALAXY A71</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>J3 2017</t>
+          <t>GALAXY J3 2017</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>NOTE10 LITE</t>
+          <t>GALAXY NOTE 10 LITE</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NOTE10+</t>
+          <t>GALAXY NOTE 10+</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>S10</t>
+          <t>GALAXY S10</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>S10 LITE</t>
+          <t>GALAXY S10 LITE</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>S10 LITE</t>
+          <t>GALAXY S10 LITE</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>S10+</t>
+          <t>GALAXY S10+</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>S10+</t>
+          <t>GALAXY S10+</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Z FLIP</t>
+          <t>GALAXY Z FLIP</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>READMI 7A</t>
+          <t>REDMI 7A</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>INFONA</t>
+          <t>128GB</t>
         </is>
       </c>
     </row>
@@ -6955,6 +6955,3416 @@
       <c r="D284" t="inlineStr">
         <is>
           <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 11 128GB Black </t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel CAT S61 </t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>S61</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P30 Lite plavi</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>P30 LITE</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME X2 PRO 12GB/256 GB PLAVI  </t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy Note10 lite srebrni dual SIM SM-N770F </t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>GALAXY NOTE 10 LITE</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy S20 128GB nebesko rozi SM-G980FZIDEUG </t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>GALAXY S20</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Alcatel
+—30.25</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ALCATEL</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Apple iPhone 11 128GB Black </t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone 11 Pro 64GB srebrni</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>IPHONE 11 PRO</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 11 Pro Max 64GB Midnight Green </t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>IPHONE 11 PRO MAX</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone 7 32GB mat crni</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>IPHONE 7</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Honor 8X Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>HONOR</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>8X</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—MediaPad T5 10 3+32GB LTE</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>MEDIAPAD T5 10</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P40 128GB crni</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>P40</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P40 Lite 128 GB crni</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>P40 LITE</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P40 PRO 256GB crni</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—Y6 2019 DS crni</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Y6</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Panasonic KX-TU110 plavi  </t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>PANASONIC</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>KX-TU110</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy Fold</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>GALAXY FOLD</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung SM-G398F Galaxy Xcover 4s crni </t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>GALAXY XCOVER 4S</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Redmi 6A Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>REDMI 6A</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Xiaomi Redmi 8A DS 2/32GB: crna </t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>REDMI 8A</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/128GB Dual-SIM Bijela </t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+OnePlus 6T Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>6T</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>6T</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone SE 256GB crni</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>IPHONE SE</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone SE 64GB crni</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>IPHONE SE</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy A71 crni dual SIM SM-A715F </t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>GALAXY A71</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A80 Dual SIM 
+</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>GALAXY A80</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Sjajna SM-N975F </t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>GALAXY NOTE 10+</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy S10+ dijamantno crni 128GB dual SIM SM-G975F </t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>GALAXY S10+</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy S10e Dual SIM 128GB
+</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>GALAXY S10E</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S20+ DS sivi</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>GALAXY S20+</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Mi 9T Dual Sim Crni + Mi Band 3
+</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>MI 9T</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Mi Play Dual SIM plavi + Mi Band 2
+</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>MI PLAY</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Xiaomi Redmi NOTE 8 PRO 6/64GB Dual-SIM Bijela </t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/64GB Dual-SIM zeleni </t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Alcatel OT-1066D: Crna </t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>ALCATEL</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>OT-1066D</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone SE2 64GB Black </t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>IPHONE SE</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei P40 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>P40</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P40 Lite 128 GB zeleni</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>P40 LITE</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei P40 Pro Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nokia 7.1 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nokia 6.1 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME X2 PRO 8GB/128 GB Bijeli </t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>X2 PRO</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy A10 plavi dual SIM SM-A105F </t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>GALAXY A10</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi 10 8GB/256GB Siva </t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>MI10</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi 8 4GB/64GB Plava </t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>REDMI 8</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/64GB Dual-SIM Bijela </t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi
+—Redmi Note 8T</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8T</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9S 4GB/64GB Dual-SIM Bijela </t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 95</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 11 128GB White  </t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy A20e plavi dual SIM SM-A202F </t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>GALAXY A20E</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy Z Flip crni SM-F700FZKDSIO </t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>GALAXY Z FLIP</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy Z Flip ljubičasti SM-F700FZPDSIO </t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>GALAXY Z FLIP</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/64GB Dual-SIM, plava </t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Alcatel OT-5024D 1S DS 3/32GB metalik crna </t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ALCATEL</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>OT-5024D 1S</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 8 64GB Space Grey  </t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>IPHONE 8</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi Note 8T 4GB/128GB Siva  </t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8T</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S20 DS plavi</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>GALAXY S20</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Panasonic KX-TU150 crni </t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>PANASONIC</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>KX-TU150</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel REALME 5 4GB/128 GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone XR 64GB crni</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>IPHONE XR</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia 5 black </t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>XPERIA 5</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Alcatel OT-2008G, srebrna </t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>ALCATEL</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>OT-2008G</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 11 Pro 64GB Silver </t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>IPHONE 11 PRO</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone 11 Pro Max 256GB Silver </t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>IPHONE 11 PRO MAX</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone XS 64GB Silver </t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>IPHONE XS</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei MediaPad T3 10 WiFi
+</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>MEDIAPAD T3</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Kindle E-čitač 4GB Black
+</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>KINDLE</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>E-CITAC</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lenovo Yoga Smart Tab
+</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>LENOVO</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>YOGA SMART TAB</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME 5I 4GB/64 GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>5I</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME 6 8GB/128 GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy A9 DS rozi</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S20 DS rozi</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>GALAXY S20</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia 5 Red </t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>XPERIA 5</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia L4 Dual SIM crni </t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>XPERIA L4</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia L4 Dual SIM plavi </t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>XPERIA L4</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel VIVAX SMART Fly 5 Deep Black  </t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>VIVAX</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>SMART FLY5</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/128GB Dual-SIM Zelena </t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9S 6GB/128GB Dual-SIM Bijela </t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9S</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9S 6GB/128GB Dual-SIM Plava </t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9S</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9S 6GB/128GB Dual-SIM Siva </t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9S</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9S 4GB/64GB Dual-SIM Plava </t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9S</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9S 4GB/64GB Dual-SIM Siva </t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9S</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Apple iPhone 11 64GB Black </t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P30 Lite crni</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>P30 LITE</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A41 bijeli dual SIM SM-A415F </t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>GALAXY A41</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A41 crni dual SIM SM-A415F </t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>GALAXY A41</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy A41 plavi dual SIM SM-A415F </t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>GALAXY A41</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Samsung Galaxy Note10 lite crveni dual SIM SM-N770F  </t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>GALAXY NOTE 10 LITE</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy S10 512GB DS crni</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>GALAXY S10</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>512GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 PRO 8GB/256GB crna </t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>MI NOTE 10 PRO</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 8 PRO 6/128GB Dual-SIM Siva </t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 8 PRO</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone XS Max 64GB Gold </t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>IPHONE XS MAX</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Apple iPhone XS Max 64GB Silver </t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>IPHONE XS MAX</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—Mate Xs 512GB plavi</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>MATE XS</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>512GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei P40 Lite
+</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>P40 LITE</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel REALME 5I 4GB/64 GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>5I</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy A40 DS bijeli + Fit-e</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>GALAXY A40</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy A40 crni</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>GALAXY A40</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy A50 DS crni + Fit</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>GALAXY A50</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 Lite 6GB/64GB Ljubičasta </t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Xiaomi Redmi 8 4GB/64GB Plava </t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>REDMI 8</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A1
+—Alpha 20 Agate Green</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A1
+—Alpha 20+ DS Black</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>ALPHA</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Alcatel OT-5028D 1S 2020 3/32GB siva </t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>ALCATEL</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>OT-5028D 1S 2020</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Alcatel OT-5028D 1S 2020 3/32GB zelena </t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>ALCATEL</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>OT-5028D 1S 2020</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>32GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone 11 64GB ljubičasti</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>IPHONE 11</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone XS 64GB sivi</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>IPHONE XS</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone XS Max 64GB sivi</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>IPHONE XS MAX</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P30 PRO 256GB DS Amber Sunrise</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>P30 PRO</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Panasonic KX-TU466 crni  </t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>PANASONIC</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>KX-TU466</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME 6 4GB/64GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME C3 3GB/64GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel REALME 6 PRO 8GB/128 GB PLAVI </t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>REALME</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung Galaxy A41
+</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>GALAXY A41</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy S20 128GB svemirsko plavi SM-G980FLBDEUG </t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>GALAXY S20</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia 10 M2 black </t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>XPERIA 1</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia 10 M2 white </t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>XPERIA 1</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi 10 8GB/128GB Siva </t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>MI10</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi 10 8GB/128GB Zelena </t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>MI10</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel XIAOMI POCO F2 PRO 6GB/128GB Bijela </t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel XIAOMI POCO F2 PRO 6GB/128GB Siva </t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9 PRO 6GB/128GB Zelena </t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9 PRO 6GB/64GB Zelena </t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Xiaomi Redmi NOTE 9 4GB/128GB Zelena </t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9 4GB/128GB Siva </t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Alcatel OT-2003D: Plava </t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>ALCATEL</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>OT-2003D</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple
+—iPhone SE 64GB crveni</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>IPHONE SE</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel CAT S52 </t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Nokia 210 DS_BAHRSI_BLACK </t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Nokia 216 DS BLACK </t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Nokia 3310 DS BLUE </t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Nokia 7.2 DS 6GB/128GB Charcoal </t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung
+—Galaxy A40 DS crni + Fit-e</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>GALAXY A40</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Sony Xperia 1 black </t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>XPERIA 1</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia 1 M2 black - PREORDER+ poklon WH1000XMB3 </t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>XPERIA 1</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Mi Note 10 Lite Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9 4GB/128GB Zelena </t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Redmi Note 9 Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Redmi Note 9 Pro Dual SIM
+</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Panasonic KX-TU466 crni </t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>PANASONIC</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>KX-TU466</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy S10 lite plavi dual SIM SM-G770F </t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>GALAXY S10 LITE</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel CAT S52  </t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy S20+ 128GB svemirsko sivi SM-G985FZADEUG </t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>GALAXY S20+</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Nokia 3310 DS BLUE </t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>INFONA</t>
         </is>
       </c>
     </row>

--- a/map.xlsx
+++ b/map.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>PRO</t>
+          <t>P40 PRO</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>PRO</t>
+          <t>P40 PRO</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -10365,6 +10365,308 @@
       <c r="D430" t="inlineStr">
         <is>
           <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Huawei
+—P40 PRO 256GB srebrni</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>HUAWEI</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>P40 PRO</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Nokia 216 DS BLACK </t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>NOKIA</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Sony Xperia 10 M2 black </t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>XPERIA 1</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Sony Xperia 1 M2 black </t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>SONY</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>XPERIA 1</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+iPhone 11 Pro 64G
+</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>APPLE</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>IPHONE 11 PRO</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy A20e narančasti dual SIM SM-A202F </t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>GALAXY A20E</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Samsung Galaxy Note10+ 12GB/256GB Aura Bijela SM-N975F </t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>SAMSUNG</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>GALAXY NOTE 10+</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Mi Note 10 Lite 6GB/64GB Crna </t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>MI NOTE 10</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>64GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Mobitel Xiaomi Mi 10 8GB/128GB Siva </t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>MI10</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel XIAOMI POCO F2 PRO 6GB/128GB Ljubičasta </t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel XIAOMI POCO F2 PRO 6GB/128GB Plavi </t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>PRO</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Xiaomi Redmi 8A
+</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>REDMI 8A</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>INFONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Mobitel Xiaomi Redmi NOTE 9 4GB/128GB Bijela </t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>XIAOMI</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>REDMI NOTE 9</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>128GB</t>
         </is>
       </c>
     </row>
